--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Work\Teaching\Spring 2023\CSC 573\Programming HW Assignments\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NCSU Folder\Second Sem\IP\IP-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B6840A-3869-4870-A755-B9604E2D59E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D18E12-C0F7-4658-998F-FCA7FB988DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17388" yWindow="21396" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5988" yWindow="1608" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -575,6 +575,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,9 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,7 +888,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,40 +900,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="27" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="18" t="s">
         <v>1</v>
       </c>
@@ -989,14 +989,33 @@
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="B4" s="2">
+        <v>4151.6400000000003</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2050.6179999999999</v>
+      </c>
+      <c r="D4" s="8">
+        <f xml:space="preserve"> (1000* 15606.3375423809 + 100*15457.1948312148)/1100</f>
+        <v>15592.779114093073</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3514.1550000000002</v>
+      </c>
+      <c r="F4" s="8">
+        <f xml:space="preserve"> (49726.5532483395 +  33439.777219964)/2</f>
+        <v>41583.165234151747</v>
+      </c>
+      <c r="G4" s="8">
+        <v>12752.266</v>
+      </c>
+      <c r="H4" s="8">
+        <f>(80672.7891084448+ 35545.2811004857)/2</f>
+        <v>58109.035104465249</v>
+      </c>
+      <c r="I4" s="9">
+        <v>31909.967000000001</v>
+      </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
@@ -1006,14 +1025,30 @@
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="3">
+        <v>3087.694</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1348.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8526.4470000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2875.9830000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12736.931</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2052.268</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9124.759</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2421.9279999999999</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1054,7 +1089,7 @@
       <c r="M7" s="7"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NCSU Folder\Second Sem\IP\IP-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D18E12-C0F7-4658-998F-FCA7FB988DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032278A-B029-4BCF-ACC1-A04FA3E5889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="1608" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3216" yWindow="2376" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,14 +887,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="13" width="13.88671875" customWidth="1"/>
     <col min="14" max="17" width="9.109375" customWidth="1"/>
   </cols>
@@ -990,86 +995,123 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>4151.6400000000003</v>
+        <v>4868.8527000000004</v>
       </c>
       <c r="C4" s="8">
-        <v>2050.6179999999999</v>
+        <v>1159.9567999999999</v>
       </c>
       <c r="D4" s="8">
-        <f xml:space="preserve"> (1000* 15606.3375423809 + 100*15457.1948312148)/1100</f>
-        <v>15592.779114093073</v>
+        <v>19852.5939</v>
       </c>
       <c r="E4" s="8">
-        <v>3514.1550000000002</v>
+        <v>3117.9099000000001</v>
       </c>
       <c r="F4" s="8">
-        <f xml:space="preserve"> (49726.5532483395 +  33439.777219964)/2</f>
-        <v>41583.165234151747</v>
+        <v>62199.434500000003</v>
       </c>
       <c r="G4" s="8">
-        <v>12752.266</v>
+        <v>9865.4354000000003</v>
       </c>
       <c r="H4" s="8">
-        <f>(80672.7891084448+ 35545.2811004857)/2</f>
-        <v>58109.035104465249</v>
+        <v>123596.19809999999</v>
       </c>
       <c r="I4" s="9">
-        <v>31909.967000000001</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+        <v>8248.9853000000003</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1.0116000000000001</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1.0012000000000001</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1.0001</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1.0000100000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>3087.694</v>
+        <v>1766.5128999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1348.9</v>
+        <v>894.85159999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>8526.4470000000001</v>
+        <v>5729.4005999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>2875.9830000000002</v>
+        <v>1660.9006999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>12736.931</v>
+        <v>11315.8523</v>
       </c>
       <c r="G5" s="1">
-        <v>2052.268</v>
+        <v>3213.7673</v>
       </c>
       <c r="H5" s="1">
-        <v>9124.759</v>
+        <v>7751.9123</v>
       </c>
       <c r="I5" s="4">
-        <v>2421.9279999999999</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="4"/>
+        <v>590.85950000000003</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1.0021</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.0002</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.0000199999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.0000020000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="4"/>
+      <c r="B6" s="3">
+        <v>6870.3234000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1349.0581</v>
+      </c>
+      <c r="D6" s="1">
+        <v>49432.311399999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8439.4508000000005</v>
+      </c>
+      <c r="F6" s="1">
+        <v>91879.1878</v>
+      </c>
+      <c r="G6" s="1">
+        <v>22464.662799999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>97907.224900000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>7401.1386000000002</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1.0092000000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.0008999999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.0000899999999999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1.0000089999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NCSU Folder\Second Sem\IP\IP-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1032278A-B029-4BCF-ACC1-A04FA3E5889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2E0D95-C157-4B55-8F31-457F0AF0925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3216" yWindow="2376" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NCSU Folder\Second Sem\IP\IP-Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2E0D95-C157-4B55-8F31-457F0AF0925A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4854FEE6-F54A-4E66-98C3-F5E4DA609C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="2376" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="804" yWindow="2400" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="A1:M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,18 +1117,50 @@
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="5">
+        <f xml:space="preserve"> 80.8570470147893*3</f>
+        <v>242.57114104436789</v>
+      </c>
+      <c r="C7" s="6">
+        <f>0.612726778745324*3</f>
+        <v>1.8381803362359719</v>
+      </c>
+      <c r="D7" s="6">
+        <f>811.799705972062*3</f>
+        <v>2435.3991179161862</v>
+      </c>
+      <c r="E7" s="6">
+        <f>2.97679507119252*3</f>
+        <v>8.9303852135775603</v>
+      </c>
+      <c r="F7" s="6">
+        <f>8270.1188780474*3</f>
+        <v>24810.356634142201</v>
+      </c>
+      <c r="G7" s="6">
+        <f>49.5428836527206*3</f>
+        <v>148.62865095816178</v>
+      </c>
+      <c r="H7" s="6">
+        <f>71525.6376728478*3</f>
+        <v>214576.91301854342</v>
+      </c>
+      <c r="I7" s="7">
+        <f>350.980241133561*3</f>
+        <v>1052.9407234006831</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.1235999999999999</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1.0123</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.0025999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
